--- a/data_prueba.xlsx
+++ b/data_prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGM\Projects\Generar_OC_Automatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375B738-B2D7-430B-8651-EC2200772006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4961C-CF06-4D2C-866D-D35898E7B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B601E3B4-253B-4E89-8940-92663FAF9BD3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="99">
   <si>
     <t>GLN</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>cod_proveedor</t>
-  </si>
-  <si>
-    <t>C154</t>
   </si>
 </sst>
 </file>
@@ -816,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD635FA-BE99-4654-A614-109A048FC86D}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83:H87"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H75" activeCellId="1" sqref="H74 H75:H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2988,7 +2985,7 @@
         <v>91</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,7 +3011,7 @@
         <v>91</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3040,7 +3037,7 @@
         <v>91</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,7 +3063,7 @@
         <v>91</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
